--- a/REGULAR/CCR/LIMBOC, FLORDELIZA.xlsx
+++ b/REGULAR/CCR/LIMBOC, FLORDELIZA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="425">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1303,6 +1303,12 @@
   </si>
   <si>
     <t>4/1-29/2022</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>12/15,19,27/2023</t>
   </si>
 </sst>
 </file>
@@ -2187,7 +2193,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2230,7 +2236,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2294,7 +2300,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2354,7 +2360,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2420,7 +2426,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2483,7 +2489,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2581,7 +2587,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2640,7 +2646,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2705,7 +2711,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2748,7 +2754,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2823,7 +2829,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3009,7 +3015,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3075,7 +3081,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3133,7 +3139,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3199,7 +3205,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3255,7 +3261,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3330,7 +3336,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3373,7 +3379,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3439,7 +3445,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3495,7 +3501,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3593,7 +3599,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3656,7 +3662,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3722,7 +3728,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K732" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K748" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -4100,12 +4106,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K732"/>
+  <dimension ref="A2:K748"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <pane ySplit="4020" topLeftCell="A717" activePane="bottomLeft"/>
+      <pane ySplit="4020" topLeftCell="A714" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="H729" sqref="H729"/>
+      <selection pane="bottomLeft" activeCell="J733" sqref="J733"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4266,7 +4272,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>24.874999999999858</v>
+        <v>24.624999999999858</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4276,7 +4282,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>64.397999999999996</v>
+        <v>65.147999999999996</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -5507,7 +5513,7 @@
       <c r="D62" s="39"/>
       <c r="E62" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>24.874999999999858</v>
+        <v>24.624999999999858</v>
       </c>
       <c r="F62" s="20"/>
       <c r="G62" s="13" t="str">
@@ -5517,7 +5523,7 @@
       <c r="H62" s="39"/>
       <c r="I62" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>64.397999999999996</v>
+        <v>65.147999999999996</v>
       </c>
       <c r="J62" s="11"/>
       <c r="K62" s="47"/>
@@ -5836,7 +5842,7 @@
       </c>
       <c r="E76" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>24.874999999999858</v>
+        <v>24.624999999999858</v>
       </c>
       <c r="F76" s="20"/>
       <c r="G76" s="13" t="str">
@@ -5846,7 +5852,7 @@
       <c r="H76" s="39"/>
       <c r="I76" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>64.397999999999996</v>
+        <v>65.147999999999996</v>
       </c>
       <c r="J76" s="11"/>
       <c r="K76" s="47">
@@ -20883,13 +20889,15 @@
       <c r="B729" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C729" s="13"/>
+      <c r="C729" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D729" s="39"/>
       <c r="E729" s="9"/>
       <c r="F729" s="20"/>
-      <c r="G729" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G729" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H729" s="39">
         <v>1</v>
@@ -20901,10 +20909,10 @@
       </c>
     </row>
     <row r="730" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A730" s="40">
-        <v>45200</v>
-      </c>
-      <c r="B730" s="20"/>
+      <c r="A730" s="40"/>
+      <c r="B730" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C730" s="13"/>
       <c r="D730" s="39"/>
       <c r="E730" s="9"/>
@@ -20913,46 +20921,362 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H730" s="39"/>
+      <c r="H730" s="39">
+        <v>1</v>
+      </c>
       <c r="I730" s="9"/>
       <c r="J730" s="11"/>
-      <c r="K730" s="20"/>
+      <c r="K730" s="47">
+        <v>45196</v>
+      </c>
     </row>
     <row r="731" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A731" s="40">
-        <v>45231</v>
-      </c>
-      <c r="B731" s="15"/>
-      <c r="C731" s="41"/>
-      <c r="D731" s="42"/>
+        <v>45200</v>
+      </c>
+      <c r="B731" s="20"/>
+      <c r="C731" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D731" s="39"/>
       <c r="E731" s="9"/>
-      <c r="F731" s="15"/>
-      <c r="G731" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H731" s="42"/>
+      <c r="F731" s="20"/>
+      <c r="G731" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H731" s="39"/>
       <c r="I731" s="9"/>
-      <c r="J731" s="12"/>
-      <c r="K731" s="15"/>
+      <c r="J731" s="11"/>
+      <c r="K731" s="20"/>
     </row>
     <row r="732" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A732" s="40">
+        <v>45231</v>
+      </c>
+      <c r="B732" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C732" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D732" s="42">
+        <v>1</v>
+      </c>
+      <c r="E732" s="9"/>
+      <c r="F732" s="15"/>
+      <c r="G732" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H732" s="42"/>
+      <c r="I732" s="9"/>
+      <c r="J732" s="12"/>
+      <c r="K732" s="49">
+        <v>45239</v>
+      </c>
+    </row>
+    <row r="733" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A733" s="40"/>
+      <c r="B733" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C733" s="13"/>
+      <c r="D733" s="39"/>
+      <c r="E733" s="9"/>
+      <c r="F733" s="20"/>
+      <c r="G733" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H733" s="39">
+        <v>1</v>
+      </c>
+      <c r="I733" s="9"/>
+      <c r="J733" s="11"/>
+      <c r="K733" s="47">
+        <v>45230</v>
+      </c>
+    </row>
+    <row r="734" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A734" s="40"/>
+      <c r="B734" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C734" s="13"/>
+      <c r="D734" s="39"/>
+      <c r="E734" s="9"/>
+      <c r="F734" s="20"/>
+      <c r="G734" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H734" s="39">
+        <v>1</v>
+      </c>
+      <c r="I734" s="9"/>
+      <c r="J734" s="11"/>
+      <c r="K734" s="47">
+        <v>45233</v>
+      </c>
+    </row>
+    <row r="735" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A735" s="40">
         <v>45261</v>
       </c>
-      <c r="B732" s="20"/>
-      <c r="C732" s="13"/>
-      <c r="D732" s="39"/>
-      <c r="E732" s="9"/>
-      <c r="F732" s="20"/>
-      <c r="G732" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H732" s="39"/>
-      <c r="I732" s="9"/>
-      <c r="J732" s="11"/>
-      <c r="K732" s="20"/>
+      <c r="B735" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="C735" s="13"/>
+      <c r="D735" s="39">
+        <v>3</v>
+      </c>
+      <c r="E735" s="9"/>
+      <c r="F735" s="20"/>
+      <c r="G735" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H735" s="39"/>
+      <c r="I735" s="9"/>
+      <c r="J735" s="11"/>
+      <c r="K735" s="20" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="736" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A736" s="46" t="s">
+        <v>423</v>
+      </c>
+      <c r="B736" s="20"/>
+      <c r="C736" s="13"/>
+      <c r="D736" s="39"/>
+      <c r="E736" s="9"/>
+      <c r="F736" s="20"/>
+      <c r="G736" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H736" s="39"/>
+      <c r="I736" s="9"/>
+      <c r="J736" s="11"/>
+      <c r="K736" s="20"/>
+    </row>
+    <row r="737" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A737" s="40">
+        <v>45292</v>
+      </c>
+      <c r="B737" s="20"/>
+      <c r="C737" s="13"/>
+      <c r="D737" s="39"/>
+      <c r="E737" s="9"/>
+      <c r="F737" s="20"/>
+      <c r="G737" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H737" s="39"/>
+      <c r="I737" s="9"/>
+      <c r="J737" s="11"/>
+      <c r="K737" s="20"/>
+    </row>
+    <row r="738" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A738" s="40">
+        <v>45323</v>
+      </c>
+      <c r="B738" s="20"/>
+      <c r="C738" s="13"/>
+      <c r="D738" s="39"/>
+      <c r="E738" s="9"/>
+      <c r="F738" s="20"/>
+      <c r="G738" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H738" s="39"/>
+      <c r="I738" s="9"/>
+      <c r="J738" s="11"/>
+      <c r="K738" s="20"/>
+    </row>
+    <row r="739" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A739" s="40">
+        <v>45352</v>
+      </c>
+      <c r="B739" s="20"/>
+      <c r="C739" s="13"/>
+      <c r="D739" s="39"/>
+      <c r="E739" s="9"/>
+      <c r="F739" s="20"/>
+      <c r="G739" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H739" s="39"/>
+      <c r="I739" s="9"/>
+      <c r="J739" s="11"/>
+      <c r="K739" s="20"/>
+    </row>
+    <row r="740" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A740" s="40">
+        <v>45383</v>
+      </c>
+      <c r="B740" s="20"/>
+      <c r="C740" s="13"/>
+      <c r="D740" s="39"/>
+      <c r="E740" s="9"/>
+      <c r="F740" s="20"/>
+      <c r="G740" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H740" s="39"/>
+      <c r="I740" s="9"/>
+      <c r="J740" s="11"/>
+      <c r="K740" s="20"/>
+    </row>
+    <row r="741" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A741" s="40">
+        <v>45413</v>
+      </c>
+      <c r="B741" s="20"/>
+      <c r="C741" s="13"/>
+      <c r="D741" s="39"/>
+      <c r="E741" s="9"/>
+      <c r="F741" s="20"/>
+      <c r="G741" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H741" s="39"/>
+      <c r="I741" s="9"/>
+      <c r="J741" s="11"/>
+      <c r="K741" s="20"/>
+    </row>
+    <row r="742" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A742" s="40">
+        <v>45444</v>
+      </c>
+      <c r="B742" s="20"/>
+      <c r="C742" s="13"/>
+      <c r="D742" s="39"/>
+      <c r="E742" s="9"/>
+      <c r="F742" s="20"/>
+      <c r="G742" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H742" s="39"/>
+      <c r="I742" s="9"/>
+      <c r="J742" s="11"/>
+      <c r="K742" s="20"/>
+    </row>
+    <row r="743" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A743" s="40">
+        <v>45474</v>
+      </c>
+      <c r="B743" s="20"/>
+      <c r="C743" s="13"/>
+      <c r="D743" s="39"/>
+      <c r="E743" s="9"/>
+      <c r="F743" s="20"/>
+      <c r="G743" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H743" s="39"/>
+      <c r="I743" s="9"/>
+      <c r="J743" s="11"/>
+      <c r="K743" s="20"/>
+    </row>
+    <row r="744" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A744" s="40">
+        <v>45505</v>
+      </c>
+      <c r="B744" s="20"/>
+      <c r="C744" s="13"/>
+      <c r="D744" s="39"/>
+      <c r="E744" s="9"/>
+      <c r="F744" s="20"/>
+      <c r="G744" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H744" s="39"/>
+      <c r="I744" s="9"/>
+      <c r="J744" s="11"/>
+      <c r="K744" s="20"/>
+    </row>
+    <row r="745" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A745" s="40">
+        <v>45536</v>
+      </c>
+      <c r="B745" s="20"/>
+      <c r="C745" s="13"/>
+      <c r="D745" s="39"/>
+      <c r="E745" s="9"/>
+      <c r="F745" s="20"/>
+      <c r="G745" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H745" s="39"/>
+      <c r="I745" s="9"/>
+      <c r="J745" s="11"/>
+      <c r="K745" s="20"/>
+    </row>
+    <row r="746" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A746" s="40">
+        <v>45566</v>
+      </c>
+      <c r="B746" s="20"/>
+      <c r="C746" s="13"/>
+      <c r="D746" s="39"/>
+      <c r="E746" s="9"/>
+      <c r="F746" s="20"/>
+      <c r="G746" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H746" s="39"/>
+      <c r="I746" s="9"/>
+      <c r="J746" s="11"/>
+      <c r="K746" s="20"/>
+    </row>
+    <row r="747" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A747" s="40">
+        <v>45597</v>
+      </c>
+      <c r="B747" s="20"/>
+      <c r="C747" s="13"/>
+      <c r="D747" s="39"/>
+      <c r="E747" s="9"/>
+      <c r="F747" s="20"/>
+      <c r="G747" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H747" s="39"/>
+      <c r="I747" s="9"/>
+      <c r="J747" s="11"/>
+      <c r="K747" s="20"/>
+    </row>
+    <row r="748" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A748" s="40">
+        <v>45627</v>
+      </c>
+      <c r="B748" s="20"/>
+      <c r="C748" s="13"/>
+      <c r="D748" s="39"/>
+      <c r="E748" s="9"/>
+      <c r="F748" s="20"/>
+      <c r="G748" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H748" s="39"/>
+      <c r="I748" s="9"/>
+      <c r="J748" s="11"/>
+      <c r="K748" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -21124,7 +21448,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>89.272999999999854</v>
+        <v>89.772999999999854</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
